--- a/output/below_50/tRNA-Asp-GTC-3-1.xlsx
+++ b/output/below_50/tRNA-Asp-GTC-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
   <si>
     <t>chr6</t>
   </si>
@@ -348,240 +348,6 @@
   </si>
   <si>
     <t>33875968608</t>
-  </si>
-  <si>
-    <t>27551289</t>
-  </si>
-  <si>
-    <t>27551312</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>27551292</t>
-  </si>
-  <si>
-    <t>AGTCTTCCTCGTTAGTATAG</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>8% (20)</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 46%, Moreno-Mateos: 8%</t>
-  </si>
-  <si>
-    <t>2.40569E+11</t>
-  </si>
-  <si>
-    <t>27551328</t>
-  </si>
-  <si>
-    <t>27551351</t>
-  </si>
-  <si>
-    <t>27551348</t>
-  </si>
-  <si>
-    <t>GAAAAGAAACTCAATTGAAA</t>
-  </si>
-  <si>
-    <t>27% (42)</t>
-  </si>
-  <si>
-    <t>7% (19)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 27, Doench 2016: 27%, Moreno-Mateos: 7%</t>
-  </si>
-  <si>
-    <t>2.99122E+11</t>
-  </si>
-  <si>
-    <t>27551459</t>
-  </si>
-  <si>
-    <t>27551482</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>27551479</t>
-  </si>
-  <si>
-    <t>TTGCTTCGAAAATCTGAAAA</t>
-  </si>
-  <si>
-    <t>77% (59)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 59%, Moreno-Mateos: 77%</t>
-  </si>
-  <si>
-    <t>1.5571E+11</t>
-  </si>
-  <si>
-    <t>27551600</t>
-  </si>
-  <si>
-    <t>27551623</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>27551603</t>
-  </si>
-  <si>
-    <t>CTTGAGTTGAAGAAGAAAGG</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 72%, Moreno-Mateos: 50%</t>
-  </si>
-  <si>
-    <t>3.28255E+11</t>
-  </si>
-  <si>
-    <t>27551626</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>27551606</t>
-  </si>
-  <si>
-    <t>AAACTTGAGTTGAAGAAGAA</t>
-  </si>
-  <si>
-    <t>32% (44)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 42, Doench 2016: 32%, Moreno-Mateos: 41%</t>
-  </si>
-  <si>
-    <t>3.48525E+11</t>
-  </si>
-  <si>
-    <t>27551695</t>
-  </si>
-  <si>
-    <t>27551718</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27551698</t>
-  </si>
-  <si>
-    <t>GGTAAACAGAAGCAGAGGAA</t>
-  </si>
-  <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 29, Doench 2016: 89%, Moreno-Mateos: 76%</t>
-  </si>
-  <si>
-    <t>2.57731E+11</t>
-  </si>
-  <si>
-    <t>27551696</t>
-  </si>
-  <si>
-    <t>27551719</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>27551699</t>
-  </si>
-  <si>
-    <t>TGGTAAACAGAAGCAGAGGA</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 31, Doench 2016: 75%, Moreno-Mateos: 48%</t>
-  </si>
-  <si>
-    <t>3.96741E+11</t>
-  </si>
-  <si>
-    <t>27551700</t>
-  </si>
-  <si>
-    <t>27551723</t>
-  </si>
-  <si>
-    <t>27551703</t>
-  </si>
-  <si>
-    <t>ATCATGGTAAACAGAAGCAG</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>72% (56)</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 84%, Moreno-Mateos: 72%</t>
-  </si>
-  <si>
-    <t>2.62601E+11</t>
   </si>
 </sst>
 </file>
@@ -626,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1340,478 +1106,6 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R13" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" t="s">
-        <v>128</v>
-      </c>
-      <c r="O14" t="s">
-        <v>129</v>
-      </c>
-      <c r="P14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" t="s">
-        <v>130</v>
-      </c>
-      <c r="S14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>134</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" t="s">
-        <v>137</v>
-      </c>
-      <c r="P15" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" t="s">
-        <v>139</v>
-      </c>
-      <c r="S15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>145</v>
-      </c>
-      <c r="L16" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" t="s">
-        <v>148</v>
-      </c>
-      <c r="S16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" t="s">
-        <v>154</v>
-      </c>
-      <c r="O17" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" t="s">
-        <v>157</v>
-      </c>
-      <c r="S17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" t="s">
-        <v>161</v>
-      </c>
-      <c r="N18" t="s">
-        <v>164</v>
-      </c>
-      <c r="O18" t="s">
-        <v>165</v>
-      </c>
-      <c r="P18" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>167</v>
-      </c>
-      <c r="R18" t="s">
-        <v>168</v>
-      </c>
-      <c r="S18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" t="s">
-        <v>172</v>
-      </c>
-      <c r="N19" t="s">
-        <v>175</v>
-      </c>
-      <c r="O19" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>178</v>
-      </c>
-      <c r="R19" t="s">
-        <v>179</v>
-      </c>
-      <c r="S19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" t="s">
-        <v>147</v>
-      </c>
-      <c r="N20" t="s">
-        <v>185</v>
-      </c>
-      <c r="O20" t="s">
-        <v>186</v>
-      </c>
-      <c r="P20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>187</v>
-      </c>
-      <c r="R20" t="s">
-        <v>188</v>
-      </c>
-      <c r="S20" t="s">
-        <v>189</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
